--- a/InvoiceManagementSystem/Student/ManageBulkStudent/Data/BulkStudent/DemoBulkStudent.xlsx
+++ b/InvoiceManagementSystem/Student/ManageBulkStudent/Data/BulkStudent/DemoBulkStudent.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="58">
   <si>
     <t>Title</t>
   </si>
@@ -82,12 +82,6 @@
     <t>A+</t>
   </si>
   <si>
-    <t>panchalveer@gmail.com</t>
-  </si>
-  <si>
-    <t>1st</t>
-  </si>
-  <si>
     <t>MBA</t>
   </si>
   <si>
@@ -100,15 +94,9 @@
     <t>Gujarat</t>
   </si>
   <si>
-    <t>Saniya</t>
-  </si>
-  <si>
     <t>R</t>
   </si>
   <si>
-    <t>Vohra</t>
-  </si>
-  <si>
     <t>Female</t>
   </si>
   <si>
@@ -161,6 +149,45 @@
   </si>
   <si>
     <t>Qualification</t>
+  </si>
+  <si>
+    <t>panchaldhruval96@gmail.com</t>
+  </si>
+  <si>
+    <t>Mr.</t>
+  </si>
+  <si>
+    <t>Bansri</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>Dhruvil</t>
+  </si>
+  <si>
+    <t>Patel</t>
+  </si>
+  <si>
+    <t>Dhruvil@123</t>
+  </si>
+  <si>
+    <t>bansri@gmail.com</t>
+  </si>
+  <si>
+    <t>Kamleshbhai</t>
+  </si>
+  <si>
+    <t>Baburao</t>
+  </si>
+  <si>
+    <t>kamlesh@gmail.com</t>
+  </si>
+  <si>
+    <t>dhruv.welinfoweb@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -506,17 +533,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE2"/>
+  <dimension ref="A1:AE3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AE2" sqref="AE2"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="13.140625" customWidth="1"/>
     <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.85546875" customWidth="1"/>
+    <col min="8" max="8" width="34" customWidth="1"/>
     <col min="10" max="10" width="15.28515625" customWidth="1"/>
     <col min="11" max="11" width="9.140625" customWidth="1"/>
     <col min="12" max="12" width="13.140625" customWidth="1"/>
@@ -534,7 +561,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -570,34 +597,34 @@
         <v>11</v>
       </c>
       <c r="N1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R1" t="s">
         <v>34</v>
       </c>
-      <c r="O1" t="s">
+      <c r="S1" t="s">
         <v>35</v>
       </c>
-      <c r="P1" t="s">
+      <c r="T1" t="s">
         <v>36</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>37</v>
-      </c>
-      <c r="R1" t="s">
-        <v>38</v>
-      </c>
-      <c r="S1" t="s">
-        <v>39</v>
-      </c>
-      <c r="T1" t="s">
-        <v>40</v>
       </c>
       <c r="U1" t="s">
         <v>12</v>
       </c>
       <c r="V1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="W1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="X1" t="s">
         <v>13</v>
@@ -626,31 +653,31 @@
     </row>
     <row r="2" spans="1:31">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
       </c>
       <c r="G2" s="1">
-        <v>36640</v>
+        <v>38456</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2">
-        <v>123</v>
+        <v>45</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="J2">
         <v>8488887954</v>
@@ -658,26 +685,26 @@
       <c r="L2" s="1">
         <v>45322</v>
       </c>
-      <c r="M2" t="s">
-        <v>23</v>
+      <c r="M2">
+        <v>1</v>
       </c>
       <c r="N2">
         <v>1</v>
       </c>
       <c r="O2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>40</v>
+      </c>
+      <c r="R2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S2" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="P2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>44</v>
-      </c>
-      <c r="R2" t="s">
-        <v>45</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="T2">
         <v>8487521365</v>
@@ -686,40 +713,136 @@
         <v>39844</v>
       </c>
       <c r="V2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="W2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="X2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Y2">
         <v>382443</v>
       </c>
       <c r="Z2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AA2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AB2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AC2">
         <v>382443</v>
       </c>
       <c r="AD2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AE2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" t="s">
         <v>27</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="1">
+        <v>36640</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3">
+        <v>8488887954</v>
+      </c>
+      <c r="L3" s="1">
+        <v>45322</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>55</v>
+      </c>
+      <c r="R3" t="s">
+        <v>41</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="T3">
+        <v>8487521365</v>
+      </c>
+      <c r="U3" s="1">
+        <v>39844</v>
+      </c>
+      <c r="V3" t="s">
+        <v>22</v>
+      </c>
+      <c r="W3" t="s">
+        <v>43</v>
+      </c>
+      <c r="X3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y3">
+        <v>382443</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC3">
+        <v>382443</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1"/>
     <hyperlink ref="S2" r:id="rId2"/>
+    <hyperlink ref="H3" r:id="rId3"/>
+    <hyperlink ref="S3" r:id="rId4"/>
+    <hyperlink ref="I2" r:id="rId5"/>
+    <hyperlink ref="I3" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
